--- a/FPH-Coef-CAMARGOS    -.xlsx
+++ b/FPH-Coef-CAMARGOS    -.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Corte</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Coef_V</t>
+  </si>
+  <si>
+    <t>Coef_S</t>
   </si>
   <si>
     <t>Coef_Independente</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -417,19 +423,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2231524813715514</v>
+        <v>0.217239896603396</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0.003740600445918682</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0.1083283437543508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -437,16 +443,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1069048184090599</v>
+        <v>0.1040722987028802</v>
       </c>
       <c r="D3">
-        <v>0.05574381185163534</v>
+        <v>0.06630794491911747</v>
       </c>
       <c r="E3">
-        <v>-6.689257422196234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.016319629371573</v>
+      </c>
+      <c r="F3">
+        <v>-7.956953390294093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -454,16 +463,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.1218798136036219</v>
+        <v>0.1073753047102521</v>
       </c>
       <c r="D4">
-        <v>0.03666852035380049</v>
+        <v>0.05261011162729907</v>
       </c>
       <c r="E4">
-        <v>-4.400222442456053</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.007938859463758019</v>
+      </c>
+      <c r="F4">
+        <v>-6.313213395275887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -471,16 +483,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.1434879164291525</v>
+        <v>0.1052970565775063</v>
       </c>
       <c r="D5">
-        <v>0.0253693703834425</v>
+        <v>0.05889743075508516</v>
       </c>
       <c r="E5">
-        <v>-3.044324446013097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-0.01166699886559692</v>
+      </c>
+      <c r="F5">
+        <v>-7.067691690610219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -488,13 +503,316 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.1318857722989198</v>
+        <v>0.1185721553386189</v>
       </c>
       <c r="D6">
-        <v>0.03029567761334291</v>
+        <v>0.03664790574420582</v>
       </c>
       <c r="E6">
-        <v>-3.635481313601158</v>
+        <v>0.0002766004168812049</v>
+      </c>
+      <c r="F6">
+        <v>-4.397748689304703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.1157787321405219</v>
+      </c>
+      <c r="D7">
+        <v>0.03946488459427092</v>
+      </c>
+      <c r="E7">
+        <v>-0.001000734122419571</v>
+      </c>
+      <c r="F7">
+        <v>-4.735786151312509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.1099864699944816</v>
+      </c>
+      <c r="D8">
+        <v>0.04734374354908619</v>
+      </c>
+      <c r="E8">
+        <v>-0.004999796369345855</v>
+      </c>
+      <c r="F8">
+        <v>-5.681249225890342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.1128606738335173</v>
+      </c>
+      <c r="D9">
+        <v>0.04299608253364019</v>
+      </c>
+      <c r="E9">
+        <v>-0.002725093626913807</v>
+      </c>
+      <c r="F9">
+        <v>-5.159529904036827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.1502394952438734</v>
+      </c>
+      <c r="D10">
+        <v>0.02133643733770512</v>
+      </c>
+      <c r="E10">
+        <v>0.003740600445918682</v>
+      </c>
+      <c r="F10">
+        <v>-2.56037248052461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.1353973864325451</v>
+      </c>
+      <c r="D11">
+        <v>0.02656469730127878</v>
+      </c>
+      <c r="E11">
+        <v>0.003408076373041728</v>
+      </c>
+      <c r="F11">
+        <v>-3.18776367615346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.1211231483607689</v>
+      </c>
+      <c r="D12">
+        <v>0.03444290199674369</v>
+      </c>
+      <c r="E12">
+        <v>0.001199529422358959</v>
+      </c>
+      <c r="F12">
+        <v>-4.133148239609243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.1269040133502418</v>
+      </c>
+      <c r="D13">
+        <v>0.03047730150242766</v>
+      </c>
+      <c r="E13">
+        <v>0.00260759492968951</v>
+      </c>
+      <c r="F13">
+        <v>-3.657276180291316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.1388303239902783</v>
+      </c>
+      <c r="D14">
+        <v>0.0252664900738101</v>
+      </c>
+      <c r="E14">
+        <v>0.003543921165452026</v>
+      </c>
+      <c r="F14">
+        <v>-3.031978808857208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.1436310787467315</v>
+      </c>
+      <c r="D15">
+        <v>0.02355781808153606</v>
+      </c>
+      <c r="E15">
+        <v>0.003663118464196769</v>
+      </c>
+      <c r="F15">
+        <v>-2.826938169784333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.1311290572949961</v>
+      </c>
+      <c r="D16">
+        <v>0.02833869340876902</v>
+      </c>
+      <c r="E16">
+        <v>0.003133221393951033</v>
+      </c>
+      <c r="F16">
+        <v>-3.400643209052289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.1329431160414754</v>
+      </c>
+      <c r="D17">
+        <v>0.02755468375069239</v>
+      </c>
+      <c r="E17">
+        <v>0.003269953068981525</v>
+      </c>
+      <c r="F17">
+        <v>-3.306562050083087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.1252801361588246</v>
+      </c>
+      <c r="D18">
+        <v>0.03145984386259164</v>
+      </c>
+      <c r="E18">
+        <v>0.002299154350728041</v>
+      </c>
+      <c r="F18">
+        <v>-3.775181263510992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.1233646106499118</v>
+      </c>
+      <c r="D19">
+        <v>0.03274762936511141</v>
+      </c>
+      <c r="E19">
+        <v>0.001849973484075243</v>
+      </c>
+      <c r="F19">
+        <v>-3.929715523813367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.1296674491808573</v>
+      </c>
+      <c r="D20">
+        <v>0.02901897026225897</v>
+      </c>
+      <c r="E20">
+        <v>0.002990852647284807</v>
+      </c>
+      <c r="F20">
+        <v>-3.482276431471075</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1283212251967272</v>
+      </c>
+      <c r="D21">
+        <v>0.02969775829790794</v>
+      </c>
+      <c r="E21">
+        <v>0.002825119286976868</v>
+      </c>
+      <c r="F21">
+        <v>-3.56373099574896</v>
       </c>
     </row>
   </sheetData>
